--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -7507,7 +7507,7 @@
         <v>49421</v>
       </c>
       <c r="H91" s="2">
-        <v>50432</v>
+        <v>48410</v>
       </c>
       <c r="I91" s="2">
         <v>50000</v>
@@ -10319,7 +10319,7 @@
         <v>8799</v>
       </c>
       <c r="H165" s="2">
-        <v>8807</v>
+        <v>8791</v>
       </c>
       <c r="I165" s="2">
         <v>1000</v>
@@ -11003,7 +11003,7 @@
         <v>53967</v>
       </c>
       <c r="H183" s="2">
-        <v>55139</v>
+        <v>52794</v>
       </c>
       <c r="I183" s="2">
         <v>20000</v>
@@ -11383,7 +11383,7 @@
         <v>8771</v>
       </c>
       <c r="H193" s="2">
-        <v>8815</v>
+        <v>8727</v>
       </c>
       <c r="I193" s="2">
         <v>2800</v>
@@ -11459,7 +11459,7 @@
         <v>21934</v>
       </c>
       <c r="H195" s="2">
-        <v>22520</v>
+        <v>21348</v>
       </c>
       <c r="I195" s="2">
         <v>10000</v>
@@ -11763,7 +11763,7 @@
         <v>12406</v>
       </c>
       <c r="H203" s="2">
-        <v>12995</v>
+        <v>11817</v>
       </c>
       <c r="I203" s="2">
         <v>10000</v>
@@ -12029,7 +12029,7 @@
         <v>44906</v>
       </c>
       <c r="H210" s="2">
-        <v>46079</v>
+        <v>43733</v>
       </c>
       <c r="I210" s="2">
         <v>40000</v>
@@ -12637,7 +12637,7 @@
         <v>102106</v>
       </c>
       <c r="H226" s="2">
-        <v>104451</v>
+        <v>99761</v>
       </c>
       <c r="I226" s="2">
         <v>40000</v>
@@ -12941,7 +12941,7 @@
         <v>20565</v>
       </c>
       <c r="H234" s="2">
-        <v>20960</v>
+        <v>20169</v>
       </c>
       <c r="I234" s="2">
         <v>5000</v>
@@ -12979,7 +12979,7 @@
         <v>11990</v>
       </c>
       <c r="H235" s="2">
-        <v>12137</v>
+        <v>11843</v>
       </c>
       <c r="I235" s="2">
         <v>5000</v>
@@ -13169,7 +13169,7 @@
         <v>2304</v>
       </c>
       <c r="H240" s="2">
-        <v>2451</v>
+        <v>2157</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
@@ -13245,7 +13245,7 @@
         <v>11264</v>
       </c>
       <c r="H242" s="2">
-        <v>11499</v>
+        <v>11028</v>
       </c>
       <c r="I242" s="2">
         <v>5000</v>
@@ -13283,7 +13283,7 @@
         <v>26274</v>
       </c>
       <c r="H243" s="2">
-        <v>26861</v>
+        <v>25688</v>
       </c>
       <c r="I243" s="2">
         <v>10000</v>
@@ -13435,7 +13435,7 @@
         <v>12326</v>
       </c>
       <c r="H247" s="2">
-        <v>12530</v>
+        <v>12122</v>
       </c>
       <c r="I247" s="2">
         <v>5000</v>
@@ -36843,7 +36843,7 @@
         <v>43674</v>
       </c>
       <c r="H863" s="2">
-        <v>44847</v>
+        <v>42501</v>
       </c>
       <c r="I863" s="2">
         <v>0</v>
@@ -40149,7 +40149,7 @@
         <v>93</v>
       </c>
       <c r="H950" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I950" s="2">
         <v>75</v>
@@ -40301,7 +40301,7 @@
         <v>93</v>
       </c>
       <c r="H954" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I954" s="2">
         <v>75</v>
@@ -40491,7 +40491,7 @@
         <v>95</v>
       </c>
       <c r="H959" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I959" s="2">
         <v>75</v>
